--- a/02_PHP_MySQL/01_DBdesign/recipes_db.xlsx
+++ b/02_PHP_MySQL/01_DBdesign/recipes_db.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
     <sheet name="1NF" sheetId="2" r:id="rId2"/>
     <sheet name="2NF" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
   <si>
     <t>Таратор</t>
   </si>
@@ -283,7 +284,202 @@
     <t>recipe_name</t>
   </si>
   <si>
-    <t>recipe_products</t>
+    <t>product_quant</t>
+  </si>
+  <si>
+    <r>
+      <t>Кисело мляко</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>бр</t>
+  </si>
+  <si>
+    <t>връзка</t>
+  </si>
+  <si>
+    <t>скилидка</t>
+  </si>
+  <si>
+    <t>к.л.</t>
+  </si>
+  <si>
+    <t>гр</t>
+  </si>
+  <si>
+    <t>щипка</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Краставица </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Копър </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чесън </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сминдух </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода </t>
+  </si>
+  <si>
+    <t>Яйца</t>
+  </si>
+  <si>
+    <r>
+      <t>Брашно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.95"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Захар</t>
+  </si>
+  <si>
+    <t>Сода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сол </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прясно мляко </t>
+  </si>
+  <si>
+    <t>prep_description</t>
+  </si>
+  <si>
+    <t>product_unit</t>
+  </si>
+  <si>
+    <t>recipe_product</t>
+  </si>
+  <si>
+    <t>prep_time</t>
+  </si>
+  <si>
+    <t>recipe_description</t>
+  </si>
+  <si>
+    <t>recipe_time</t>
+  </si>
+  <si>
+    <t>decr 1</t>
+  </si>
+  <si>
+    <t>descr 2</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_image</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>unit_name</t>
+  </si>
+  <si>
+    <t>краставица</t>
+  </si>
+  <si>
+    <t>кис мляко</t>
+  </si>
+  <si>
+    <t>яйца по панагюрски</t>
+  </si>
+  <si>
+    <t>яйца</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>recipes_products_quantities_units</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>meal_types</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>meal_type_name</t>
+  </si>
+  <si>
+    <t>супи</t>
+  </si>
+  <si>
+    <t>десерти</t>
+  </si>
+  <si>
+    <t>meal_type_id</t>
+  </si>
+  <si>
+    <t>основни ястия</t>
+  </si>
+  <si>
+    <t>recipe_id, PK</t>
+  </si>
+  <si>
+    <t>recipe_descr</t>
+  </si>
+  <si>
+    <t>meal_type_id, FK</t>
+  </si>
+  <si>
+    <t>product_id, PK</t>
+  </si>
+  <si>
+    <t>recipe_id, FK</t>
+  </si>
+  <si>
+    <t>product_id, FK</t>
+  </si>
+  <si>
+    <t>unit_id, FK</t>
+  </si>
+  <si>
+    <t>meal_type</t>
   </si>
 </sst>
 </file>
@@ -376,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +591,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -405,78 +631,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,22 +666,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -803,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,24 +1132,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView topLeftCell="A2" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="3" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>30</v>
       </c>
@@ -953,101 +1160,249 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="15">
+        <v>400</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="10"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="D5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C6" s="10"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
+      <c r="D6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C8" s="10"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="12"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="13" t="s">
+      <c r="D8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C9" s="9">
         <v>6</v>
       </c>
+      <c r="D9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="15">
+        <v>500</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="9">
         <v>7</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C11" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="15">
+        <v>500</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C12" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="15">
+        <v>100</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C13" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C14" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C15" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1059,15 +1414,740 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G14" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="15">
+        <v>400</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="15">
+        <v>500</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="15">
+        <v>500</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="15">
+        <v>100</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20"/>
+      <c r="G15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="K15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="N15" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+    </row>
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="16">
+        <v>5</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="K18" s="23">
+        <v>1</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="29">
+        <v>1</v>
+      </c>
+      <c r="O18" s="29">
+        <v>1</v>
+      </c>
+      <c r="P18" s="29">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>1</v>
+      </c>
+      <c r="R18" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="16">
+        <v>60</v>
+      </c>
+      <c r="E19" s="16">
+        <v>2</v>
+      </c>
+      <c r="G19" s="25">
+        <v>2</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="K19" s="23">
+        <v>2</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="29">
+        <v>2</v>
+      </c>
+      <c r="O19" s="29">
+        <v>1</v>
+      </c>
+      <c r="P19" s="29">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>500</v>
+      </c>
+      <c r="R19" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="16">
+        <v>3</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
+        <v>3</v>
+      </c>
+      <c r="G20" s="25">
+        <v>3</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="K20" s="23">
+        <v>3</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="29">
+        <v>3</v>
+      </c>
+      <c r="O20" s="29">
+        <v>1</v>
+      </c>
+      <c r="P20" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+    </row>
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="G21" s="25">
+        <v>4</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="K21" s="23">
+        <v>4</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="29">
+        <v>4</v>
+      </c>
+      <c r="O21" s="29">
+        <v>2</v>
+      </c>
+      <c r="P21" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+    </row>
+    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="G22" s="25">
+        <v>5</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="K22" s="23">
+        <v>5</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="29">
+        <v>5</v>
+      </c>
+      <c r="O22" s="29">
+        <v>2</v>
+      </c>
+      <c r="P22" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+    </row>
+    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="G23" s="25">
+        <v>6</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="K23" s="23">
+        <v>6</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="29">
+        <v>6</v>
+      </c>
+      <c r="O23" s="29">
+        <v>2</v>
+      </c>
+      <c r="P23" s="29">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="G24" s="25">
+        <v>7</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="K24" s="23">
+        <v>7</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="29">
+        <v>7</v>
+      </c>
+      <c r="O24" s="29">
+        <v>3</v>
+      </c>
+      <c r="P24" s="29">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+    </row>
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="G25" s="25">
+        <v>8</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="25"/>
+      <c r="N25" s="29">
+        <v>8</v>
+      </c>
+      <c r="O25" s="29">
+        <v>3</v>
+      </c>
+      <c r="P25" s="29">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>1</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>2</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>3</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="K15:L15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/02_PHP_MySQL/01_DBdesign/recipes_db.xlsx
+++ b/02_PHP_MySQL/01_DBdesign/recipes_db.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -667,9 +668,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -684,26 +682,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -1146,11 +1147,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -1176,233 +1177,233 @@
       </c>
     </row>
     <row r="4" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>400</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>500</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>7</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>3</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>8</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>500</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>9</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>100</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>11</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>12</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1458,238 +1459,238 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>400</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="15">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>500</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>3</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>500</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>100</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="G15" s="22" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="19"/>
+      <c r="G15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="K15" s="28" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="K15" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="28"/>
+      <c r="L15" s="32"/>
       <c r="N15" s="30" t="s">
         <v>73</v>
       </c>
@@ -1699,302 +1700,302 @@
       <c r="R15" s="30"/>
     </row>
     <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="O17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="29" t="s">
+      <c r="P17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="Q17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
-        <v>1</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>5</v>
       </c>
-      <c r="E18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="25">
-        <v>1</v>
-      </c>
-      <c r="H18" s="26" t="s">
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="K18" s="23">
-        <v>1</v>
-      </c>
-      <c r="L18" s="23" t="s">
+      <c r="I18" s="22"/>
+      <c r="K18" s="20">
+        <v>1</v>
+      </c>
+      <c r="L18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="29">
-        <v>1</v>
-      </c>
-      <c r="O18" s="29">
-        <v>1</v>
-      </c>
-      <c r="P18" s="29">
+      <c r="N18" s="25">
+        <v>1</v>
+      </c>
+      <c r="O18" s="25">
+        <v>1</v>
+      </c>
+      <c r="P18" s="25">
         <v>6</v>
       </c>
-      <c r="Q18" s="29">
-        <v>1</v>
-      </c>
-      <c r="R18" s="29">
+      <c r="Q18" s="25">
+        <v>1</v>
+      </c>
+      <c r="R18" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>60</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>2</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="22">
         <v>2</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="K19" s="23">
+      <c r="I19" s="22"/>
+      <c r="K19" s="20">
         <v>2</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="25">
         <v>2</v>
       </c>
-      <c r="O19" s="29">
-        <v>1</v>
-      </c>
-      <c r="P19" s="29">
+      <c r="O19" s="25">
+        <v>1</v>
+      </c>
+      <c r="P19" s="25">
         <v>7</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="Q19" s="25">
         <v>500</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15">
         <v>3</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="22">
         <v>3</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="K20" s="23">
+      <c r="I20" s="22"/>
+      <c r="K20" s="20">
         <v>3</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="25">
         <v>3</v>
       </c>
-      <c r="O20" s="29">
-        <v>1</v>
-      </c>
-      <c r="P20" s="29">
+      <c r="O20" s="25">
+        <v>1</v>
+      </c>
+      <c r="P20" s="25">
         <v>4</v>
       </c>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
     </row>
     <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G21" s="25">
+      <c r="G21" s="22">
         <v>4</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="K21" s="23">
+      <c r="I21" s="22"/>
+      <c r="K21" s="20">
         <v>4</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="25">
         <v>4</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="25">
         <v>2</v>
       </c>
-      <c r="P21" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
+      <c r="P21" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G22" s="25">
+      <c r="G22" s="22">
         <v>5</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="K22" s="23">
+      <c r="I22" s="22"/>
+      <c r="K22" s="20">
         <v>5</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="25">
         <v>5</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="25">
         <v>2</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="25">
         <v>5</v>
       </c>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G23" s="25">
+      <c r="G23" s="22">
         <v>6</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="K23" s="23">
+      <c r="I23" s="22"/>
+      <c r="K23" s="20">
         <v>6</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="25">
         <v>6</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="25">
         <v>2</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="25">
         <v>8</v>
       </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G24" s="25">
+      <c r="G24" s="22">
         <v>7</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="K24" s="23">
+      <c r="I24" s="22"/>
+      <c r="K24" s="20">
         <v>7</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="25">
         <v>7</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O24" s="25">
         <v>3</v>
       </c>
-      <c r="P24" s="29">
+      <c r="P24" s="25">
         <v>8</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="G25" s="25">
+      <c r="G25" s="22">
         <v>8</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="N25" s="29">
+      <c r="I25" s="22"/>
+      <c r="N25" s="25">
         <v>8</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="25">
         <v>3</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="25">
         <v>7</v>
       </c>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -2002,34 +2003,34 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
-        <v>1</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="18">
+        <v>1</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>2</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+      <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="26" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2049,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,15 +2110,15 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
